--- a/加工单SQL批量导入模板.xlsx
+++ b/加工单SQL批量导入模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\IdeaProjects\oa-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\广西永湘物流有限公司\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BFDBE8-8B9A-4C69-BF29-5488F1C8C1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F30F890-3218-4721-BE7A-B58559D8E698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>加工合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>x+y=2</t>
+  </si>
+  <si>
+    <t>操作人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -94,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +112,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -130,9 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -413,22 +438,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,120 +476,138 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>44932</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>44933</v>
       </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>44934</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>44935</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>44936</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/加工单SQL批量导入模板.xlsx
+++ b/加工单SQL批量导入模板.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\广西永湘物流有限公司\oa-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F30F890-3218-4721-BE7A-B58559D8E698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB76F05-05B8-4822-BB3A-2020F910328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>加工合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加工货物名称</t>
@@ -37,62 +31,51 @@
     <t>加工方公司名</t>
   </si>
   <si>
+    <t>酒精转换公式</t>
+  </si>
+  <si>
+    <t>浓缩液转换公式</t>
+  </si>
+  <si>
+    <t>合同签订时间</t>
+  </si>
+  <si>
+    <t>操作人姓名</t>
+  </si>
+  <si>
+    <t>JG20235482/样例，导入前删除本行</t>
+  </si>
+  <si>
+    <t>白糖</t>
+  </si>
+  <si>
+    <t>龙州南华糖业有限责任公司</t>
+  </si>
+  <si>
+    <t>广西永湘物流有限公司</t>
+  </si>
+  <si>
+    <t>自定义文本</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>模版填写说明：
+1.本列不能删除，且不用填写任何信息；
+2.第一行表头信息不得修改、调整、删除等；
+3.不能随意更改单元格格式，否则会导致导入失败。
+4.日期格式必须用“-”分割，如2023-01-01；
+5.【己方公司名】，必须和以下三个完全一模一样，否则导入失败：广西丰沣顺国际物流有限公司，广西永湘物流有限公司，广西永湘贸易有限责任公司</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>己方公司名</t>
-  </si>
-  <si>
-    <t>酒精转换公式</t>
-  </si>
-  <si>
-    <t>浓缩液转换公式</t>
-  </si>
-  <si>
-    <t>合同签订时间</t>
-  </si>
-  <si>
-    <t>白糖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x+y=3</t>
-  </si>
-  <si>
-    <t>x+y=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x+y=4</t>
-  </si>
-  <si>
-    <t>x+y=5</t>
-  </si>
-  <si>
-    <t>x+y=6</t>
-  </si>
-  <si>
-    <t>x+y=7</t>
-  </si>
-  <si>
-    <t>x+y=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x+y=2</t>
-  </si>
-  <si>
-    <t>操作人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义文本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -102,12 +85,41 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,30 +130,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,15 +177,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -218,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -253,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -428,190 +500,88 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="18.2109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.35546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.2109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.2109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.2109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="306" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:9" ht="60.45" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>44932</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44933</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3">
-        <v>44934</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3">
-        <v>44935</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3">
-        <v>44936</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="va+DmoaA6LmTdQdtMhAs+k7WjCP7p2idkvJTKBEljyPC4KrpC/H0maOZqCawX5G+NwBKlTK8SYg5xzL5Ub9gBQ==" saltValue="2DB6Et86quxjsfZrSLLkKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>